--- a/sessions/session1/session1_practice1.xlsx
+++ b/sessions/session1/session1_practice1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\ch_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbettadapura\Downloads\excel-analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3468B8C1-1C94-46B0-9F18-6AC6A595E294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BA16AE-4577-4C40-80F7-59A01CFF26C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{27C0F9AC-F68D-4387-AFAA-DF2C8506B82D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27C0F9AC-F68D-4387-AFAA-DF2C8506B82D}"/>
   </bookViews>
   <sheets>
     <sheet name="start" sheetId="3" r:id="rId1"/>
@@ -108,9 +108,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +148,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -254,7 +254,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -396,7 +396,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -410,12 +410,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>498664</v>
       </c>
@@ -453,7 +453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>549116</v>
       </c>
@@ -473,7 +473,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>480284</v>
       </c>
@@ -493,7 +493,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>217714</v>
       </c>
@@ -513,7 +513,7 @@
         <v>6404</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>335582</v>
       </c>
@@ -533,7 +533,7 @@
         <v>3915</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>429730</v>
       </c>
@@ -553,7 +553,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>247783</v>
       </c>
@@ -573,7 +573,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>594295</v>
       </c>
@@ -593,7 +593,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>238506</v>
       </c>
@@ -613,7 +613,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>657404</v>
       </c>
@@ -633,7 +633,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>333261</v>
       </c>
@@ -653,7 +653,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>459881</v>
       </c>
@@ -673,7 +673,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>207093</v>
       </c>
@@ -693,7 +693,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>350179</v>
       </c>
@@ -713,7 +713,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>304633</v>
       </c>
@@ -733,7 +733,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>125231</v>
       </c>
@@ -753,7 +753,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>126155</v>
       </c>
@@ -773,7 +773,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>430768</v>
       </c>
@@ -793,7 +793,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>474589</v>
       </c>
@@ -813,7 +813,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>150682</v>
       </c>
@@ -833,7 +833,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>647853</v>
       </c>
@@ -853,7 +853,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>330249</v>
       </c>
@@ -873,7 +873,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>296265</v>
       </c>
@@ -893,7 +893,7 @@
         <v>9408</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>569968</v>
       </c>
@@ -913,7 +913,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>375944</v>
       </c>
@@ -933,7 +933,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>642606</v>
       </c>
@@ -953,7 +953,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>579611</v>
       </c>
@@ -973,7 +973,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>602967</v>
       </c>
@@ -993,7 +993,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>432508</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>562962</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>516926</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>538875</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>243902</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>133649</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>6130</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>400229</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>418259</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>664362</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>301314</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>268696</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>509645</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>190534</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>9510</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>231216</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>455825</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>282910</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>592795</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>495836</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>186309</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>233570</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>7782</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>660043</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>592883</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>636132</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>589349</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>186693</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>417404</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>357194</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>578166</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>274764</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>471552</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>271190</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>431230</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>409922</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>251976</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>142171</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>295516</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>146339</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>143333</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>390725</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>625138</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>133135</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>5870</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>300696</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>336137</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>10643</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>646463</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>500365</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>8872</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>600638</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>8132</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>467450</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>531324</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>4407</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>138817</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>7530</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>534743</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>516225</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>406820</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>602016</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>360850</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>134273</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>220032</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>601620</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>214374</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>489668</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>267974</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>6312</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>409734</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>9735</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>506935</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>3443</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>256399</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>658649</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>8693</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>417576</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>223210</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>35009</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>587371</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>170153</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>244070</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>485179</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>233271</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>297186</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>5639</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>654309</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>218969</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>558805</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>653207</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>18028</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>506032</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>410133</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>395206</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>543447</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>322424</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>240929</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>321633</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>262808</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>302880</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>8853</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>603266</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>336486</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>237978</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>383580</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>633213</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>544519</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>5343</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>233562</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>305929</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>536176</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>521881</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>208567</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>355878</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>575218</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>16538</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>117355</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>8195</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>295556</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>437399</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>582209</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>500064</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>6316</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>167205</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>169333</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>170442</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>259316</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>188718</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>543676</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>181144</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>211547</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>171345</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>245611</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>596033</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>277836</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>461489</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>8425</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>622302</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145172</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>486068</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>417527</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>451790</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>4052</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>571745</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>333919</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>538224</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>598376</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>429936</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>176581</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>363175</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>657794</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>563892</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>291953</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>457896</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>390870</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>259077</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>543303</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>375731</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>359631</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>381907</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>175634</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>386348</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>530328</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>512879</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>140896</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>575034</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>213247</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>619376</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>594593</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>226465</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>482689</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>7368</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>651861</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>568035</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>473630</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>4477</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>274181</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>483722</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>16745</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>528645</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>114236</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>36534</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>316124</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>276176</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>486429</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>544162</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>6269</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>611199</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>633461</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>462225</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>7332</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>472129</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>629052</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>173253</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>199180</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>652169</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>7888</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>239867</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>18711</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>188916</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>598545</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>256440</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>546941</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>407989</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>442202</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>5065</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>172959</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>533005</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>135997</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>247728</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>312835</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>549176</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>499124</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>397625</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>490070</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>4736</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>589540</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>606538</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>304580</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>337589</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>599148</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>318594</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>295759</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>422547</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>422320</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>479308</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>561686</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>7496</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>296259</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>5612</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>235474</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>529627</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>508965</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>335273</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>150992</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>517808</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>6845</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>549527</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>8321</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>512994</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>184478</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>538866</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>431107</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>280413</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>168924</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>352097</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>4634</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>617006</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>146891</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>5243</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>428095</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>11422</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>416323</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>424106</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>3752</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>549683</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>381207</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>327929</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>482861</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>605263</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>351669</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>154701</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>6340</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>620352</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>530721</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>6746</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>317562</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>7683</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>403370</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>637572</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>4686</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>575986</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>538092</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>403723</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>5004</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>315797</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>6422</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>115270</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>323342</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>384031</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>6818</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>436465</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>279907</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>4324</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>538437</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>630476</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>10155</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>388851</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>162472</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>519363</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>505571</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>342461</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>112837</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>307257</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>517257</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>376163</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>144433</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>397167</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>4479</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>596476</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>16919</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>608753</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>5845</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>289201</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>653915</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>198466</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>436597</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>5970</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>543985</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>10303</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>214980</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>8692</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>359238</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>486346</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>502918</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>8366</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>268795</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>633057</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>637190</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>606799</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>583191</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>150267</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>422700</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>410026</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>200061</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>659596</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>139666</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>449513</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>292655</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>657945</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>291759</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>193859</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>651544</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>421690</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>391900</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>639892</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>173441</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>626134</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>350652</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>12569</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>642770</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>462717</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>241903</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>4447</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>312259</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>178077</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>138694</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>587138</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>240789</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>311592</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>381083</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>454680</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>297046</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>3703</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>333462</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>578171</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>345970</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>60869</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>340753</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>160322</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>208500</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>7849</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>260339</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>5127</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>463256</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>316420</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>132519</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>262673</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>200160</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>11559</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>429671</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>454809</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>370590</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>8170</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>637026</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>15601</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>512968</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>9584</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>429204</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>471111</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>164778</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>325551</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>198222</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>531729</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>502724</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>439768</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>518254</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>176062</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>570710</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>418067</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>604249</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>127843</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>581629</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>6386</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>442579</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>383714</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>514384</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>553842</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>6114</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>570381</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>536919</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>210207</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>196596</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>214627</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>414886</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>587127</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>607806</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>557102</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>244423</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>135564</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>451407</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>174025</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>8164</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>472370</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>228029</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>645006</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>541608</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>264952</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>5641</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>145669</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>415799</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>596382</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>214522</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>167462</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>9927</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>240992</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>313169</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>500955</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>290494</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>188164</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>228322</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>553091</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>566619</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>609601</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>5502</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>477080</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>359808</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>325053</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>8620</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>575120</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>134370</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>308492</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>398337</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>6838</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>129669</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>175980</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>458602</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>581059</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>13223</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>148547</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>448050</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>282280</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>4324</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>229548</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>430115</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>9806</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>378956</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>599768</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>122150</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>183754</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>246746</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>117137</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>295783</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>17866</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>307171</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>5679</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>250793</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>219247</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>575407</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>385468</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>114750</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>529673</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>420150</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>252850</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>261615</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>594507</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>646247</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>15348</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>618246</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>252641</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>15082</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>369469</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>634434</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>527291</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A432">
         <v>618673</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>301026</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A434">
         <v>525326</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>298029</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A436">
         <v>252978</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>13135</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>133854</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>4510</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A438">
         <v>430512</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>505151</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.65">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A440">
         <v>389891</v>
       </c>
